--- a/Config.xlsx
+++ b/Config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chetan P\Documents\UiPath\EmailAutomation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chetan P\Documents\UiPath\TestiningInDatatable\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Name</t>
   </si>
@@ -35,10 +35,24 @@
     <t>Body</t>
   </si>
   <si>
-    <t>Hello {0},
-Hope you are doing well, Please see attached Salary of Month {1}
-Thank You!
-Nithya</t>
+    <t>Link1</t>
+  </si>
+  <si>
+    <t>Link2</t>
+  </si>
+  <si>
+    <t>&lt;!DOCTYPE html&gt;&lt;body&gt;&lt;img src=http://stskfacilities.com:8081/stskFmsApi/imageDoc/getImage/39/Web%201920%20%C3%A2%E2%82%AC%E2%80%9C%2015.png  width='900' height='400'&gt;&lt;/body&gt;&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>Hello {0},&lt;br&gt;&lt;br&gt;
+Message From {1}&lt;br&gt;bellow image you just go trough it&lt;br&gt;
+Am happy to help You!&lt;br&gt;
+{2}&lt;br&gt;
+Thank You!&lt;br&gt;
+StskSupport</t>
+  </si>
+  <si>
+    <t>&lt;!DOCTYPE html&gt;&lt;body&gt;&lt;img src= https://ci4.googleusercontent.com/proxy/NlhRIc96ANuHcJDEsx5ijozz7dXXJOfX2Py-ESGJGrVsOrPoFRP0N6Lq6AVumgoL4LFoite-v_ydgeuYy1WJASrn08gdzM_AXEapbH-lmJv__guDY0iEmb2j_ksw9Viih6gMyuBBfv8AxXgGocQ1czLbr6MlHA=s0-d-e1-ft#https://aws1.discourse-cdn.com/uipath/original/3X/8/a/8a7cb940a4e6052883ede229ced8b9a0c4b2d0db.jpeg alt=hyperhack_linkedin (1) width='900' height='1400'&gt;&lt;/body&gt;&lt;/html&gt;</t>
   </si>
 </sst>
 </file>
@@ -371,15 +385,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="58.42578125" customWidth="1"/>
+    <col min="2" max="2" width="188.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -390,12 +404,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
